--- a/metrics_results.xlsx
+++ b/metrics_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,25 +441,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Neurons</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Accuracy</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Precision</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Recall</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>F1-Score</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>AUC-ROC</t>
         </is>
@@ -470,179 +475,2069 @@
         <v>0.1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.509825327510917</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5254491017964071</v>
+        <v>0.5152838427947598</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7267080745341615</v>
+        <v>0.5277382645803699</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6099044309296263</v>
+        <v>0.7681159420289855</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5069403602388842</v>
+        <v>0.6256323777403036</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.5210936267267224</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.517467248908297</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5329052969502408</v>
+        <v>0.509825327510917</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6873706004140787</v>
+        <v>0.5251479289940828</v>
       </c>
       <c r="E3" t="n">
-        <v>0.600361663652803</v>
+        <v>0.7349896480331263</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5128024902098605</v>
+        <v>0.6125970664365833</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.4997776598338904</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5251091703056768</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5378548895899053</v>
+        <v>0.517467248908297</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7060041407867494</v>
+        <v>0.5321821036106751</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6105640107430618</v>
+        <v>0.7018633540372671</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5073754775532062</v>
+        <v>0.6053571428571428</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5070766332439192</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5305676855895196</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5403348554033486</v>
+        <v>0.527292576419214</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7349896480331263</v>
+        <v>0.5394321766561514</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6228070175438597</v>
+        <v>0.7080745341614907</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5199747536327515</v>
+        <v>0.612354521038496</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.5090298796494197</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5240174672489083</v>
+        <v>50</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5354449472096531</v>
+        <v>0.527292576419214</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7349896480331263</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6195462478184991</v>
+        <v>0.7039337474120083</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5093167701863354</v>
+        <v>0.6109613656783468</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5279933441395436</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5163755458515283</v>
+        <v>60</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5283286118980169</v>
+        <v>0.5131004366812227</v>
       </c>
       <c r="D7" t="n">
-        <v>0.772256728778468</v>
+        <v>0.530278232405892</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6274179983179141</v>
+        <v>0.6708074534161491</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5216913153452967</v>
+        <v>0.5923217550274223</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5118700959648845</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5207423580786026</v>
+        <v>70</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5318840579710145</v>
+        <v>0.5349344978165939</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7598343685300207</v>
+        <v>0.5429864253393665</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6257459505541346</v>
+        <v>0.7453416149068323</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5201277619191065</v>
+        <v>0.6282722513089005</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.5234461291294307</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5218340611353712</v>
+        <v>80</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5294888597640891</v>
+        <v>0.5338427947598253</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8364389233954451</v>
+        <v>0.5465116279069767</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6484751203852328</v>
+        <v>0.6811594202898551</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5291600323230005</v>
+        <v>0.6064516129032258</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.5230683899224917</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>90</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5120087336244541</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5246575342465754</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7929606625258799</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.631492168178071</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.5266449586160401</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5196506550218341</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5295735900962861</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7971014492753623</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.5272665547793572</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5513100436681223</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5498614958448753</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8219461697722568</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.6589211618257261</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.533688121297319</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5218340611353712</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5323741007194245</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7660455486542443</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.6281833616298812</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.4963827884803886</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5109170305676856</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5266362252663622</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7163561076604554</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.607017543859649</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.5097423244827602</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B15" t="n">
+        <v>40</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5131004366812227</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5292259083728278</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6935817805383023</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.6003584229390682</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.5145573039939945</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B16" t="n">
+        <v>50</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5065502183406113</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5248796147672552</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6770186335403726</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.5913200723327305</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5066845495101343</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>60</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5262008733624454</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.540765391014975</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6728778467908902</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.5996309963099631</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.5090490056852141</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B18" t="n">
+        <v>70</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5109170305676856</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.5251798561151079</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7556935817805382</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.6196943972835314</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.5185403009481733</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B19" t="n">
+        <v>80</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5163755458515283</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5317460317460317</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.6935817805383023</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.6019766397124887</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.5210075595656477</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B20" t="n">
+        <v>90</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5305676855895196</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5391432791728212</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.7556935817805382</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.6293103448275862</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.5181769062680801</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5131004366812227</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5288611544461779</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7018633540372671</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.603202846975089</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5178230746058842</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B22" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5240174672489083</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5294855708908407</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8737060041407867</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.659375</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.515680958596914</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B23" t="n">
+        <v>20</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5163755458515283</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5286532951289399</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.7639751552795031</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.6248941574936494</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.5165751007703011</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B24" t="n">
+        <v>30</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.5141921397379913</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5283582089552239</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7329192546583851</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.614050303555941</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.5011547344110855</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B25" t="n">
+        <v>40</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5163755458515283</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5307692307692308</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.6090026478375993</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5178374191327298</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B26" t="n">
+        <v>50</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5152838427947598</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5321252059308073</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.6687370600414079</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.5926605504587155</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.5073228809547717</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B27" t="n">
+        <v>60</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5262008733624454</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.539708265802269</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.6894409937888198</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.6054545454545455</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.5214618029157642</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B28" t="n">
+        <v>70</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.5327510917030568</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.5442834138486312</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.6997929606625258</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.6123188405797101</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.5257938500231903</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B29" t="n">
+        <v>80</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5305676855895196</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.5408320493066255</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.7267080745341615</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.6201413427561837</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.5262002782838208</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B30" t="n">
+        <v>90</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.5196506550218341</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.5315712187958884</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7494824016563147</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.6219931271477664</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.5161973615633622</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B31" t="n">
+        <v>100</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.5196506550218341</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.5322338830584707</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.7349896480331263</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.6173913043478261</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.5224683105494432</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.5207423580786026</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.527431421446384</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.8757763975155279</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.6583657587548638</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.5329374243923897</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B33" t="n">
+        <v>20</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.5218340611353712</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.5332348596750369</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.7474120082815735</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.6224137931034482</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.5315268792525546</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B34" t="n">
+        <v>30</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.5185589519650655</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.6181818181818182</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.4983001735687748</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B35" t="n">
+        <v>40</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.5010917030567685</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.5202492211838006</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.6915113871635611</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.5937777777777776</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.5078894897651801</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B36" t="n">
+        <v>50</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.5240174672489083</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.5354449472096531</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.7349896480331263</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.6195462478184991</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.5031151530800091</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B37" t="n">
+        <v>60</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.5196232339089482</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.6853002070393375</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.5910714285714285</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.5038515054580925</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B38" t="n">
+        <v>70</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.5229257641921398</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.5368589743589743</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.6935817805383023</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.6052393857271906</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.5215335255499931</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B39" t="n">
+        <v>80</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.5229257641921398</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.5218299791048059</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B40" t="n">
+        <v>90</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.5163755458515283</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.5295857988165681</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.7412008281573499</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.6177739430543573</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.5199269385432655</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B41" t="n">
+        <v>100</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.5251091703056768</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5351906158357771</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.7556935817805382</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.6266094420600857</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.5251961614046161</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B42" t="n">
+        <v>10</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.5152838427947598</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.5248407643312102</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.8530020703933747</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.6498422712933754</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.5230397008688001</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B43" t="n">
+        <v>20</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.5360262008733624</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.5421511627906976</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.772256728778468</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.637062339880444</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.525815366813459</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B44" t="n">
+        <v>30</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.5338427947598253</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.5401146131805158</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.7805383022774327</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.6384419983065199</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.5210553746551336</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B45" t="n">
+        <v>40</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.5283842794759825</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.6230366492146596</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.515068925451494</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B46" t="n">
+        <v>50</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.5251091703056768</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.5369230769230769</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.722567287784679</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.6160635481023831</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.5142656319481302</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B47" t="n">
+        <v>60</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.5327510917030568</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.543171114599686</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.7163561076604554</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.6178571428571428</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.5175409655779171</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B48" t="n">
+        <v>70</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.5294759825327511</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.5397553516819572</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.7308488612836439</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.6209322779243623</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.505505907554306</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B49" t="n">
+        <v>80</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.5316593886462883</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.5436893203883495</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.6103542234332425</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.5253443881820224</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B50" t="n">
+        <v>90</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.5185589519650655</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.531437125748503</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.7349896480331263</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.6168549087749783</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.5099431478586013</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B51" t="n">
+        <v>100</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.5262008733624454</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.5368421052631579</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.6219512195121951</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.5285001840880945</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B52" t="n">
+        <v>10</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.527292576419214</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.5299043062200957</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.917184265010352</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.67172100075815</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.5296262294454883</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B53" t="n">
+        <v>20</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.5240174672489083</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.5308804204993429</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.8364389233954451</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.6495176848874599</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.5227145582602959</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B54" t="n">
+        <v>30</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.5196506550218341</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.530239099859353</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.7805383022774327</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.6314907872696818</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.5101870048149795</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B55" t="n">
+        <v>40</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.5163755458515283</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.528169014084507</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.7763975155279503</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.6286672254819782</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.5212179459593859</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B56" t="n">
+        <v>50</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.5229257641921398</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.5358255451713395</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.7122153209109731</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.6115555555555555</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.5106938447635305</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B57" t="n">
+        <v>60</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.5349344978165939</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.543247344461305</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.7412008281573499</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.6269702276707532</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.511277188855259</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B58" t="n">
+        <v>70</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.537117903930131</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.5439642324888226</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.7556935817805382</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.6325823223570191</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.5249762119929806</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B59" t="n">
+        <v>80</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.5131004366812227</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.5300813008130081</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.6749482401656315</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.5938069216757741</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.5145812115387374</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B60" t="n">
+        <v>90</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.5196506550218341</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.5315712187958884</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.7494824016563147</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.6219931271477664</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.5173449237110247</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B61" t="n">
+        <v>100</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.527292576419214</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.5391849529780565</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.7122153209109731</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.6137377341659233</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.5301928382558968</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B62" t="n">
+        <v>10</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.5207423580786026</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.5251716247139588</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.9503105590062112</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.6764922623434045</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.5171966969336184</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B63" t="n">
+        <v>20</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.5141921397379913</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.5238693467336684</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.8633540372670807</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.6520719311962471</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.5294732211591333</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B64" t="n">
+        <v>30</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.5240174672489083</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.5304010349288486</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.8488612836438924</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.6528662420382165</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.5252248504583077</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B65" t="n">
+        <v>40</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.5141921397379913</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.5269886363636364</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.7681159420289855</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.6251053074978938</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.5201373249370036</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B66" t="n">
+        <v>50</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.5087336244541485</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.5236728837876614</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.7556935817805382</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.6186440677966102</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.5195252917915836</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B67" t="n">
+        <v>60</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.5141921397379913</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.5281899109792285</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.7370600414078675</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.6153846153846153</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.5178708896953701</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B68" t="n">
+        <v>70</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.5109170305676856</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.5245441795231417</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.7743271221532091</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.6254180602006689</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.5164603445555348</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B69" t="n">
+        <v>80</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.5109170305676856</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.5281803542673108</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.6790890269151139</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.5942028985507246</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.5146624971908634</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B70" t="n">
+        <v>90</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.5109170305676856</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.5258493353028065</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.7370600414078675</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.6137931034482759</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.5196352664974013</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B71" t="n">
+        <v>100</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.5043668122270742</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.5195681511470985</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.7971014492753623</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.6290849673202615</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.5262959084627927</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B72" t="n">
+        <v>10</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.5218340611353712</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.5272067714631197</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.9026915113871635</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.6656488549618319</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.5331143402234877</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B73" t="n">
+        <v>20</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.5305676855895196</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.5339308578745199</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.8633540372670807</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.6598101265822786</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.5343192804785334</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B74" t="n">
+        <v>30</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.5262008733624454</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.5291319857312723</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.9213250517598344</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.6722054380664653</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.5275630083341701</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B75" t="n">
+        <v>40</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.5251091703056768</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.5306122448979592</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.8612836438923396</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.6566692975532755</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.5244884980802241</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B76" t="n">
+        <v>50</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.5283842794759825</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.5344129554655871</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.8198757763975155</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.527787739254754</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B77" t="n">
+        <v>60</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.5218340611353712</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.5300400534045394</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.8219461697722568</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.6444805194805194</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.5279646550858519</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B78" t="n">
+        <v>70</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.5185589519650655</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.5298295454545454</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.772256728778468</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.628475147430497</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.5235895743978886</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B79" t="n">
+        <v>80</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.5109170305676856</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.5229357798165137</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.6404494382022472</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.5236804230679118</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B80" t="n">
+        <v>90</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.5283842794759825</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.5385779122541604</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.7370600414078675</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.6223776223776224</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.5373603201698391</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B81" t="n">
+        <v>100</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.5338427947598253</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.7101449275362319</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.6163522012578616</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.5282563271317163</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
         <v>0.9</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B82" t="n">
+        <v>10</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.5251091703056768</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.5276497695852534</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.94824016563147</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.6780162842339008</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.5135675316416355</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B83" t="n">
+        <v>20</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.5240174672489083</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.5266742338251986</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.9606625258799172</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.6803519061583577</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.5296979520797174</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B84" t="n">
+        <v>30</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.5141921397379913</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.5236907730673317</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.6536964980544748</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.5261142111227461</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B85" t="n">
+        <v>40</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.5218340611353712</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.5268176400476758</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.9151138716356108</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.6686838124054463</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.527586915878913</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B86" t="n">
+        <v>50</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.5240174672489083</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.5272305909617613</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.9420289855072463</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.676077265973254</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.5248303759700486</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B87" t="n">
+        <v>60</v>
+      </c>
+      <c r="C87" t="n">
         <v>0.5163755458515283</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.524390243902439</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.8902691511387164</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.6600153491941673</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.525549993066812</v>
+      <c r="D87" t="n">
+        <v>0.5273224043715847</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.7991718426501035</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.6353909465020576</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.5269414121708528</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B88" t="n">
+        <v>70</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.5196506550218341</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.5385996409335727</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.6211180124223602</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.5769230769230769</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.527433907592558</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B89" t="n">
+        <v>80</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.5218340611353712</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.5288092189500641</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.855072463768116</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.653481012658228</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.5336020541362443</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B90" t="n">
+        <v>90</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.5152838427947598</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.5282199710564399</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.7556935817805382</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.6218057921635435</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.5270752944214134</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B91" t="n">
+        <v>100</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.5218340611353712</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.5398230088495575</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.6314699792960663</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.58206106870229</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.5292747885377668</v>
       </c>
     </row>
   </sheetData>

--- a/metrics_results.xlsx
+++ b/metrics_results.xlsx
@@ -493,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
         <v>0.001</v>
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.5207423580786026</v>
+        <v>0.5109170305676856</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5336391437308868</v>
+        <v>0.528</v>
       </c>
       <c r="H2" t="n">
-        <v>0.722567287784679</v>
+        <v>0.6832298136645962</v>
       </c>
       <c r="I2" t="n">
-        <v>0.613896218117854</v>
+        <v>0.5956678700361011</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5088768713630647</v>
+        <v>0.4979319973797331</v>
       </c>
     </row>
   </sheetData>
